--- a/i_data/experimental_parameters.xlsx
+++ b/i_data/experimental_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/bchua026_e_ntu_edu_sg/Documents/OFYP/NH3_Calorimetry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/bchua026_e_ntu_edu_sg/Documents/OFYP/NH3_Calorimetry/i_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_F25DC773A252ABDACC104851E9D85E525BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96CC4594-B6BE-4D0B-A505-8F0B5BB6F863}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_F25DC773A252ABDACC104851E9D85E525BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82F0BA33-5245-46C7-A195-A9E2184B5E98}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>T_max(K)</t>
   </si>
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>wt%_offset_tanh_err_%</t>
+  </si>
+  <si>
+    <t>tanh coeff</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -75,7 +90,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -135,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -147,7 +162,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -160,8 +175,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -448,15 +462,12 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K12" sqref="K12:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="9.140625" style="12"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +480,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -488,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>319.14999999999998</v>
       </c>
@@ -501,7 +512,7 @@
       <c r="D2" s="4">
         <v>1E-4</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2">
         <v>267.7</v>
       </c>
       <c r="F2" s="2">
@@ -516,12 +527,12 @@
       <c r="I2" s="1">
         <v>0.5</v>
       </c>
-      <c r="J2" s="14">
-        <f>I2/H2*100</f>
+      <c r="J2" s="13">
+        <f t="shared" ref="J2:J8" si="0">I2/H2*100</f>
         <v>9.615384615384615</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>319.14999999999998</v>
       </c>
@@ -534,7 +545,7 @@
       <c r="D3" s="6">
         <v>1E-4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <v>262.8</v>
       </c>
       <c r="F3" s="2">
@@ -549,12 +560,12 @@
       <c r="I3" s="1">
         <v>0.3</v>
       </c>
-      <c r="J3" s="14">
-        <f>I3/H3*100</f>
+      <c r="J3" s="13">
+        <f t="shared" si="0"/>
         <v>3.6585365853658542</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>299.14999999999998</v>
       </c>
@@ -567,7 +578,7 @@
       <c r="D4" s="6">
         <v>1E-4</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>262.5</v>
       </c>
       <c r="F4" s="2">
@@ -582,12 +593,12 @@
       <c r="I4" s="1">
         <v>0.3</v>
       </c>
-      <c r="J4" s="14">
-        <f>I4/H4*100</f>
+      <c r="J4" s="13">
+        <f t="shared" si="0"/>
         <v>3.5714285714285712</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>299.14999999999998</v>
       </c>
@@ -600,7 +611,7 @@
       <c r="D5" s="6">
         <v>1E-4</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>259.60000000000002</v>
       </c>
       <c r="F5" s="2">
@@ -615,12 +626,12 @@
       <c r="I5" s="1">
         <v>0.2</v>
       </c>
-      <c r="J5" s="14">
-        <f>I5/H5*100</f>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>319.14999999999998</v>
       </c>
@@ -633,7 +644,7 @@
       <c r="D6" s="6">
         <v>1E-4</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>250.7</v>
       </c>
       <c r="F6" s="2">
@@ -648,12 +659,12 @@
       <c r="I6" s="1">
         <v>0.1</v>
       </c>
-      <c r="J6" s="14">
-        <f>I6/H6*100</f>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
         <v>0.69930069930069927</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>319.14999999999998</v>
       </c>
@@ -666,7 +677,7 @@
       <c r="D7" s="6">
         <v>1E-4</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>235.2</v>
       </c>
       <c r="F7" s="2">
@@ -681,12 +692,12 @@
       <c r="I7" s="1">
         <v>0.03</v>
       </c>
-      <c r="J7" s="14">
-        <f>I7/H7*100</f>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
         <v>0.14947683109118085</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>299.14999999999998</v>
       </c>
@@ -699,7 +710,7 @@
       <c r="D8" s="6">
         <v>1E-4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>207.4</v>
       </c>
       <c r="F8" s="2">
@@ -714,22 +725,59 @@
       <c r="I8" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J8" s="14">
-        <f>I8/H8*100</f>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
         <v>7.4316290130796679E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>0.28559000604717799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>-248.815400411187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>4.8958980621020901E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15">
+        <v>0.28593599329299602</v>
+      </c>
     </row>
     <row r="17" spans="17:21" x14ac:dyDescent="0.25">
       <c r="Q17" s="2"/>
